--- a/data/raw/ams_jena_results-co2-S19-1a_2020-04-29/Rost_61.xlsx
+++ b/data/raw/ams_jena_results-co2-S19-1a_2020-04-29/Rost_61.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="16215" windowHeight="13740"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="16220" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,6 +63,7 @@
         <b/>
         <sz val="14"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>‰)</t>
     </r>
@@ -71,6 +77,7 @@
         <b/>
         <sz val="14"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>‰</t>
     </r>
@@ -630,25 +637,25 @@
     <t>single measurements of the respective sample, plus a contribution from the calibration by the standards</t>
   </si>
   <si>
-    <t>2_GRrf_comp_10-20</t>
-  </si>
-  <si>
-    <t>3_GRrf_comp_20-30</t>
-  </si>
-  <si>
-    <t>5_GRwf_comp_10-20</t>
-  </si>
-  <si>
-    <t>23_BSwf_comp_10-20</t>
-  </si>
-  <si>
-    <t>24_BSwf_comp_20-30</t>
-  </si>
-  <si>
-    <t>27_BSpp_comp_20-30</t>
-  </si>
-  <si>
     <t>Blank_41_24032020</t>
+  </si>
+  <si>
+    <t>2_GRrf_comp_10-20_2019_a</t>
+  </si>
+  <si>
+    <t>3_GRrf_comp_20-30_2019_a</t>
+  </si>
+  <si>
+    <t>5_GRwf_comp_10-20_2019_a</t>
+  </si>
+  <si>
+    <t>23_BSwf_comp_10-20_2019_a</t>
+  </si>
+  <si>
+    <t>24_BSwf_comp_20-30_2019_a</t>
+  </si>
+  <si>
+    <t>27_BSpp_comp_20-30_2019_a</t>
   </si>
 </sst>
 </file>
@@ -762,29 +769,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,10 +799,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,22 +1176,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1202,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -1206,7 +1213,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
@@ -1217,7 +1224,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="21" t="s">
         <v>20</v>
       </c>
@@ -1228,7 +1235,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="21"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -1237,7 +1244,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
@@ -1248,7 +1255,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="21" t="s">
         <v>14</v>
       </c>
@@ -1259,7 +1266,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
@@ -1270,7 +1277,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1288,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
@@ -1292,7 +1299,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" s="21"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
@@ -1301,7 +1308,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="21" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1319,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
@@ -1323,7 +1330,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="21" t="s">
         <v>12</v>
       </c>
@@ -1334,7 +1341,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="21"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -1343,7 +1350,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="21" t="s">
         <v>8</v>
       </c>
@@ -1354,7 +1361,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
@@ -1365,7 +1372,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
@@ -1376,7 +1383,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
@@ -1387,7 +1394,7 @@
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="12"/>
       <c r="B20" s="22"/>
       <c r="C20" s="18"/>
@@ -1396,7 +1403,7 @@
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
@@ -1407,7 +1414,7 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
     </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1418,7 +1425,7 @@
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
@@ -1429,7 +1436,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
@@ -1440,7 +1447,7 @@
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15">
       <c r="A25" s="12"/>
       <c r="B25" s="22"/>
       <c r="C25" s="18"/>
@@ -1449,7 +1456,7 @@
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
@@ -1458,7 +1465,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
@@ -1481,12 +1488,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" s="10">
         <v>23147</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="11">
         <v>0.60840000000000005</v>
@@ -1502,12 +1509,12 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15">
       <c r="A29" s="10">
         <v>23148</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="11">
         <v>0.97929999999999995</v>
@@ -1523,12 +1530,12 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="10">
         <v>23149</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="11">
         <v>0.97109999999999996</v>
@@ -1544,12 +1551,12 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15">
       <c r="A31" s="10">
         <v>23150</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="11">
         <v>0.98740000000000006</v>
@@ -1565,12 +1572,12 @@
       </c>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15">
       <c r="A32" s="10">
         <v>23151</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" s="11">
         <v>0.94350000000000001</v>
@@ -1586,12 +1593,12 @@
       </c>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15">
       <c r="A33" s="10">
         <v>23152</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="11">
         <v>1.0054000000000001</v>
@@ -1607,12 +1614,12 @@
       </c>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" s="10">
         <v>23153</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C34" s="11">
         <v>7.4000000000000003E-3</v>
@@ -1628,7 +1635,7 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
@@ -1637,7 +1644,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -1646,7 +1653,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
@@ -1655,7 +1662,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
@@ -1664,7 +1671,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
@@ -1673,7 +1680,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
@@ -1682,7 +1689,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
@@ -1691,7 +1698,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
@@ -1700,7 +1707,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
@@ -1709,7 +1716,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
@@ -1718,7 +1725,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
@@ -1727,7 +1734,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
@@ -1736,7 +1743,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
@@ -1745,7 +1752,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
@@ -1754,7 +1761,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
@@ -1763,7 +1770,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
@@ -1772,7 +1779,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="15">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
@@ -1781,7 +1788,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
@@ -1790,7 +1797,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
@@ -1799,7 +1806,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
@@ -1808,7 +1815,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="15">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
@@ -1817,7 +1824,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
@@ -1826,7 +1833,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
@@ -1835,7 +1842,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="15">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
@@ -1844,7 +1851,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
@@ -1853,7 +1860,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
@@ -1862,7 +1869,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="15">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
@@ -1871,7 +1878,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
@@ -1880,7 +1887,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
@@ -1889,7 +1896,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
@@ -1898,7 +1905,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
@@ -1910,7 +1917,12 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>